--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_4.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26326,19 +26328,19 @@
         <v>9700.454551367558</v>
       </c>
       <c r="G2" t="n">
-        <v>9700.454551367558</v>
+        <v>9700.45455136756</v>
       </c>
       <c r="H2" t="n">
         <v>9700.454551367558</v>
       </c>
       <c r="I2" t="n">
-        <v>9700.454551367558</v>
+        <v>9700.454551367557</v>
       </c>
       <c r="J2" t="n">
         <v>9700.454551367558</v>
       </c>
       <c r="K2" t="n">
-        <v>9700.454551367558</v>
+        <v>9700.45455136756</v>
       </c>
       <c r="L2" t="n">
         <v>9700.454551367558</v>
@@ -26347,10 +26349,10 @@
         <v>9700.454551367558</v>
       </c>
       <c r="N2" t="n">
-        <v>9700.454551367558</v>
+        <v>9700.45455136756</v>
       </c>
       <c r="O2" t="n">
-        <v>9700.454551367558</v>
+        <v>9700.45455136756</v>
       </c>
       <c r="P2" t="n">
         <v>9700.454551367558</v>
@@ -26534,19 +26536,19 @@
         <v>4850.227275683779</v>
       </c>
       <c r="G6" t="n">
-        <v>4850.227275683779</v>
+        <v>4850.227275683781</v>
       </c>
       <c r="H6" t="n">
         <v>4850.227275683779</v>
       </c>
       <c r="I6" t="n">
-        <v>4850.227275683779</v>
+        <v>4850.227275683777</v>
       </c>
       <c r="J6" t="n">
         <v>4850.227275683779</v>
       </c>
       <c r="K6" t="n">
-        <v>4850.227275683779</v>
+        <v>4850.227275683781</v>
       </c>
       <c r="L6" t="n">
         <v>4850.227275683779</v>
@@ -26555,10 +26557,10 @@
         <v>4850.227275683779</v>
       </c>
       <c r="N6" t="n">
-        <v>4850.227275683779</v>
+        <v>4850.227275683781</v>
       </c>
       <c r="O6" t="n">
-        <v>4850.227275683779</v>
+        <v>4850.227275683781</v>
       </c>
       <c r="P6" t="n">
         <v>4850.227275683779</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51409.21470245528</v>
+        <v>-63008.05866432587</v>
       </c>
     </row>
     <row r="7">
@@ -26328,19 +26328,19 @@
         <v>9700.454551367558</v>
       </c>
       <c r="G2" t="n">
-        <v>9700.45455136756</v>
+        <v>9700.454551367558</v>
       </c>
       <c r="H2" t="n">
         <v>9700.454551367558</v>
       </c>
       <c r="I2" t="n">
-        <v>9700.454551367557</v>
+        <v>9700.454551367558</v>
       </c>
       <c r="J2" t="n">
         <v>9700.454551367558</v>
       </c>
       <c r="K2" t="n">
-        <v>9700.45455136756</v>
+        <v>9700.454551367558</v>
       </c>
       <c r="L2" t="n">
         <v>9700.454551367558</v>
@@ -26349,10 +26349,10 @@
         <v>9700.454551367558</v>
       </c>
       <c r="N2" t="n">
-        <v>9700.45455136756</v>
+        <v>9700.454551367558</v>
       </c>
       <c r="O2" t="n">
-        <v>9700.45455136756</v>
+        <v>9700.454551367558</v>
       </c>
       <c r="P2" t="n">
         <v>9700.454551367558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28777.37272431622</v>
+        <v>-30163.6852908566</v>
       </c>
       <c r="C6" t="n">
-        <v>-28777.37272431622</v>
+        <v>-30163.6852908566</v>
       </c>
       <c r="D6" t="n">
-        <v>-28777.37272431622</v>
+        <v>-30163.6852908566</v>
       </c>
       <c r="E6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="F6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="G6" t="n">
-        <v>4850.227275683781</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="H6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="I6" t="n">
-        <v>4850.227275683777</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="J6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="K6" t="n">
-        <v>4850.227275683781</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="L6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="M6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="N6" t="n">
-        <v>4850.227275683781</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="O6" t="n">
-        <v>4850.227275683781</v>
+        <v>3463.914709143399</v>
       </c>
       <c r="P6" t="n">
-        <v>4850.227275683779</v>
+        <v>3463.914709143399</v>
       </c>
     </row>
   </sheetData>
